--- a/GradeDistributionsDB/Fall2015/Output/Fall2015 BA.xlsx
+++ b/GradeDistributionsDB/Fall2015/Output/Fall2015 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="927">
   <si>
     <t>Course</t>
   </si>
@@ -1681,6 +1681,18 @@
     <t>42.86%</t>
   </si>
   <si>
+    <t>MGMT-422</t>
+  </si>
+  <si>
+    <t>KING-METTERS K</t>
+  </si>
+  <si>
+    <t>96.77%</t>
+  </si>
+  <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>MGMT-424</t>
   </si>
   <si>
@@ -1708,9 +1720,6 @@
     <t>45.16%</t>
   </si>
   <si>
-    <t>3.23%</t>
-  </si>
-  <si>
     <t>MGMT-432</t>
   </si>
   <si>
@@ -2029,6 +2038,9 @@
     <t>23.33%</t>
   </si>
   <si>
+    <t>96.88%</t>
+  </si>
+  <si>
     <t>MGMT-640</t>
   </si>
   <si>
@@ -2609,6 +2621,21 @@
   </si>
   <si>
     <t>7.50%</t>
+  </si>
+  <si>
+    <t>SCMT-361</t>
+  </si>
+  <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>48.48%</t>
+  </si>
+  <si>
+    <t>34.85%</t>
+  </si>
+  <si>
+    <t>13.64%</t>
   </si>
   <si>
     <t>SCMT-364</t>
@@ -3104,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H655"/>
+  <dimension ref="A1:H662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4636,7 +4663,7 @@
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C132" t="n">
         <v>4</v>
@@ -4659,16 +4686,16 @@
     </row>
     <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="C133" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="F133" t="s">
         <v>38</v>
@@ -4682,19 +4709,19 @@
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C134" t="n">
-        <v>3.9333</v>
+        <v>3.88</v>
       </c>
       <c r="D134" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E134" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
         <v>38</v>
@@ -4705,19 +4732,19 @@
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3.9333</v>
       </c>
       <c r="D135" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="G135" t="s">
         <v>38</v>
@@ -4728,7 +4755,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="C136" t="n">
         <v>4</v>
@@ -6977,19 +7004,19 @@
     </row>
     <row r="355" spans="1:8">
       <c r="B355" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="C355" t="n">
-        <v>3.393</v>
+        <v>3.936</v>
       </c>
       <c r="D355" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E355" t="s">
-        <v>556</v>
+        <v>38</v>
       </c>
       <c r="F355" t="s">
-        <v>403</v>
+        <v>558</v>
       </c>
       <c r="G355" t="s">
         <v>38</v>
@@ -7000,24 +7027,24 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="B358" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C358" t="n">
-        <v>3.222</v>
+        <v>3.393</v>
       </c>
       <c r="D358" t="s">
-        <v>57</v>
+        <v>554</v>
       </c>
       <c r="E358" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F358" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G358" t="s">
         <v>38</v>
@@ -7028,24 +7055,24 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="B361" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C361" t="n">
-        <v>3.484</v>
+        <v>3.222</v>
       </c>
       <c r="D361" t="s">
-        <v>562</v>
+        <v>57</v>
       </c>
       <c r="E361" t="s">
         <v>563</v>
       </c>
       <c r="F361" t="s">
-        <v>564</v>
+        <v>59</v>
       </c>
       <c r="G361" t="s">
         <v>38</v>
@@ -7056,24 +7083,24 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="364" spans="1:8">
       <c r="B364" t="s">
+        <v>565</v>
+      </c>
+      <c r="C364" t="n">
+        <v>3.484</v>
+      </c>
+      <c r="D364" t="s">
         <v>566</v>
       </c>
-      <c r="C364" t="n">
-        <v>3.423</v>
-      </c>
-      <c r="D364" t="s">
+      <c r="E364" t="s">
         <v>567</v>
       </c>
-      <c r="E364" t="s">
-        <v>124</v>
-      </c>
       <c r="F364" t="s">
-        <v>38</v>
+        <v>558</v>
       </c>
       <c r="G364" t="s">
         <v>38</v>
@@ -7092,90 +7119,90 @@
         <v>569</v>
       </c>
       <c r="C367" t="n">
-        <v>3.822</v>
+        <v>3.423</v>
       </c>
       <c r="D367" t="s">
         <v>570</v>
       </c>
       <c r="E367" t="s">
+        <v>124</v>
+      </c>
+      <c r="F367" t="s">
+        <v>38</v>
+      </c>
+      <c r="G367" t="s">
+        <v>38</v>
+      </c>
+      <c r="H367" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" t="s">
         <v>571</v>
       </c>
-      <c r="F367" t="s">
+    </row>
+    <row r="370" spans="1:8">
+      <c r="B370" t="s">
+        <v>572</v>
+      </c>
+      <c r="C370" t="n">
+        <v>3.822</v>
+      </c>
+      <c r="D370" t="s">
+        <v>573</v>
+      </c>
+      <c r="E370" t="s">
+        <v>574</v>
+      </c>
+      <c r="F370" t="s">
         <v>73</v>
       </c>
-      <c r="G367" t="s">
-        <v>38</v>
-      </c>
-      <c r="H367" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
-      <c r="B368" t="s">
-        <v>572</v>
-      </c>
-      <c r="C368" t="n">
+      <c r="G370" t="s">
+        <v>38</v>
+      </c>
+      <c r="H370" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="B371" t="s">
+        <v>575</v>
+      </c>
+      <c r="C371" t="n">
         <v>3.796</v>
       </c>
-      <c r="D368" t="s">
-        <v>573</v>
-      </c>
-      <c r="E368" t="s">
-        <v>574</v>
-      </c>
-      <c r="F368" t="s">
-        <v>38</v>
-      </c>
-      <c r="G368" t="s">
-        <v>38</v>
-      </c>
-      <c r="H368" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="B369" t="s">
-        <v>575</v>
-      </c>
-      <c r="C369" t="n">
-        <v>3.498</v>
-      </c>
-      <c r="D369" t="s">
+      <c r="D371" t="s">
         <v>576</v>
       </c>
-      <c r="E369" t="s">
+      <c r="E371" t="s">
         <v>577</v>
       </c>
-      <c r="F369" t="s">
-        <v>578</v>
-      </c>
-      <c r="G369" t="s">
-        <v>38</v>
-      </c>
-      <c r="H369" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="A371" t="s">
-        <v>579</v>
+      <c r="F371" t="s">
+        <v>38</v>
+      </c>
+      <c r="G371" t="s">
+        <v>38</v>
+      </c>
+      <c r="H371" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="B372" t="s">
+        <v>578</v>
+      </c>
+      <c r="C372" t="n">
+        <v>3.498</v>
+      </c>
+      <c r="D372" t="s">
+        <v>579</v>
+      </c>
+      <c r="E372" t="s">
         <v>580</v>
       </c>
-      <c r="C372" t="n">
-        <v>2.848</v>
-      </c>
-      <c r="D372" t="s">
+      <c r="F372" t="s">
         <v>581</v>
-      </c>
-      <c r="E372" t="s">
-        <v>582</v>
-      </c>
-      <c r="F372" t="s">
-        <v>115</v>
       </c>
       <c r="G372" t="s">
         <v>38</v>
@@ -7186,78 +7213,78 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="B375" t="s">
+        <v>583</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2.848</v>
+      </c>
+      <c r="D375" t="s">
+        <v>584</v>
+      </c>
+      <c r="E375" t="s">
+        <v>585</v>
+      </c>
+      <c r="F375" t="s">
+        <v>115</v>
+      </c>
+      <c r="G375" t="s">
+        <v>38</v>
+      </c>
+      <c r="H375" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="B378" t="s">
         <v>420</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C378" t="n">
         <v>3.8</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D378" t="s">
         <v>387</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E378" t="s">
         <v>411</v>
       </c>
-      <c r="F375" t="s">
-        <v>38</v>
-      </c>
-      <c r="G375" t="s">
-        <v>38</v>
-      </c>
-      <c r="H375" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
-      <c r="B376" t="s">
-        <v>413</v>
-      </c>
-      <c r="C376" t="n">
-        <v>3.1183</v>
-      </c>
-      <c r="D376" t="s">
-        <v>584</v>
-      </c>
-      <c r="E376" t="s">
-        <v>280</v>
-      </c>
-      <c r="F376" t="s">
-        <v>585</v>
-      </c>
-      <c r="G376" t="s">
-        <v>73</v>
-      </c>
-      <c r="H376" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
-      <c r="A378" t="s">
-        <v>586</v>
+      <c r="F378" t="s">
+        <v>38</v>
+      </c>
+      <c r="G378" t="s">
+        <v>38</v>
+      </c>
+      <c r="H378" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="B379" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C379" t="n">
-        <v>3.555</v>
+        <v>3.1183</v>
       </c>
       <c r="D379" t="s">
         <v>587</v>
       </c>
       <c r="E379" t="s">
+        <v>280</v>
+      </c>
+      <c r="F379" t="s">
         <v>588</v>
       </c>
-      <c r="F379" t="s">
-        <v>589</v>
-      </c>
       <c r="G379" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="H379" t="s">
         <v>38</v>
@@ -7265,7 +7292,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -7273,72 +7300,72 @@
         <v>418</v>
       </c>
       <c r="C382" t="n">
-        <v>3.167</v>
+        <v>3.555</v>
       </c>
       <c r="D382" t="s">
+        <v>590</v>
+      </c>
+      <c r="E382" t="s">
         <v>591</v>
       </c>
-      <c r="E382" t="s">
+      <c r="F382" t="s">
         <v>592</v>
       </c>
-      <c r="F382" t="s">
-        <v>59</v>
-      </c>
       <c r="G382" t="s">
         <v>38</v>
       </c>
       <c r="H382" t="s">
-        <v>593</v>
+        <v>38</v>
       </c>
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="385" spans="1:8">
       <c r="B385" t="s">
+        <v>418</v>
+      </c>
+      <c r="C385" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D385" t="s">
+        <v>594</v>
+      </c>
+      <c r="E385" t="s">
         <v>595</v>
       </c>
-      <c r="C385" t="n">
-        <v>3.4715</v>
-      </c>
-      <c r="D385" t="s">
+      <c r="F385" t="s">
+        <v>59</v>
+      </c>
+      <c r="G385" t="s">
+        <v>38</v>
+      </c>
+      <c r="H385" t="s">
         <v>596</v>
-      </c>
-      <c r="E385" t="s">
-        <v>597</v>
-      </c>
-      <c r="F385" t="s">
-        <v>598</v>
-      </c>
-      <c r="G385" t="s">
-        <v>38</v>
-      </c>
-      <c r="H385" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="388" spans="1:8">
       <c r="B388" t="s">
+        <v>598</v>
+      </c>
+      <c r="C388" t="n">
+        <v>3.4715</v>
+      </c>
+      <c r="D388" t="s">
+        <v>599</v>
+      </c>
+      <c r="E388" t="s">
         <v>600</v>
       </c>
-      <c r="C388" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="D388" t="s">
+      <c r="F388" t="s">
         <v>601</v>
-      </c>
-      <c r="E388" t="s">
-        <v>496</v>
-      </c>
-      <c r="F388" t="s">
-        <v>602</v>
       </c>
       <c r="G388" t="s">
         <v>38</v>
@@ -7349,24 +7376,24 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="391" spans="1:8">
       <c r="B391" t="s">
+        <v>603</v>
+      </c>
+      <c r="C391" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="D391" t="s">
         <v>604</v>
       </c>
-      <c r="C391" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D391" t="s">
-        <v>134</v>
-      </c>
       <c r="E391" t="s">
-        <v>133</v>
+        <v>496</v>
       </c>
       <c r="F391" t="s">
-        <v>38</v>
+        <v>605</v>
       </c>
       <c r="G391" t="s">
         <v>38</v>
@@ -7377,21 +7404,21 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="394" spans="1:8">
       <c r="B394" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C394" t="n">
-        <v>3.714</v>
+        <v>3.6</v>
       </c>
       <c r="D394" t="s">
-        <v>607</v>
+        <v>134</v>
       </c>
       <c r="E394" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="F394" t="s">
         <v>38</v>
@@ -7403,70 +7430,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
-      <c r="B395" t="s">
-        <v>566</v>
-      </c>
-      <c r="C395" t="n">
-        <v>3.255</v>
-      </c>
-      <c r="D395" t="s">
+    <row r="396" spans="1:8">
+      <c r="A396" t="s">
         <v>608</v>
-      </c>
-      <c r="E395" t="s">
-        <v>609</v>
-      </c>
-      <c r="F395" t="s">
-        <v>610</v>
-      </c>
-      <c r="G395" t="s">
-        <v>611</v>
-      </c>
-      <c r="H395" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
-      <c r="B396" t="s">
-        <v>612</v>
-      </c>
-      <c r="C396" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D396" t="s">
-        <v>613</v>
-      </c>
-      <c r="E396" t="s">
-        <v>614</v>
-      </c>
-      <c r="F396" t="s">
-        <v>615</v>
-      </c>
-      <c r="G396" t="s">
-        <v>38</v>
-      </c>
-      <c r="H396" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="397" spans="1:8">
       <c r="B397" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C397" t="n">
-        <v>3.308</v>
+        <v>3.714</v>
       </c>
       <c r="D397" t="s">
-        <v>326</v>
+        <v>610</v>
       </c>
       <c r="E397" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="F397" t="s">
         <v>38</v>
       </c>
       <c r="G397" t="s">
-        <v>327</v>
+        <v>38</v>
       </c>
       <c r="H397" t="s">
         <v>38</v>
@@ -7474,22 +7460,22 @@
     </row>
     <row r="398" spans="1:8">
       <c r="B398" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="C398" t="n">
-        <v>3.24</v>
+        <v>3.255</v>
       </c>
       <c r="D398" t="s">
-        <v>57</v>
+        <v>611</v>
       </c>
       <c r="E398" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F398" t="s">
-        <v>72</v>
+        <v>613</v>
       </c>
       <c r="G398" t="s">
-        <v>38</v>
+        <v>614</v>
       </c>
       <c r="H398" t="s">
         <v>38</v>
@@ -7497,47 +7483,88 @@
     </row>
     <row r="399" spans="1:8">
       <c r="B399" t="s">
+        <v>615</v>
+      </c>
+      <c r="C399" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D399" t="s">
+        <v>616</v>
+      </c>
+      <c r="E399" t="s">
+        <v>617</v>
+      </c>
+      <c r="F399" t="s">
+        <v>618</v>
+      </c>
+      <c r="G399" t="s">
+        <v>38</v>
+      </c>
+      <c r="H399" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
+      <c r="B400" t="s">
         <v>619</v>
       </c>
-      <c r="C399" t="n">
-        <v>3.083</v>
-      </c>
-      <c r="D399" t="s">
-        <v>340</v>
-      </c>
-      <c r="E399" t="s">
-        <v>415</v>
-      </c>
-      <c r="F399" t="s">
-        <v>355</v>
-      </c>
-      <c r="G399" t="s">
-        <v>38</v>
-      </c>
-      <c r="H399" t="s">
+      <c r="C400" t="n">
+        <v>3.308</v>
+      </c>
+      <c r="D400" t="s">
+        <v>326</v>
+      </c>
+      <c r="E400" t="s">
+        <v>261</v>
+      </c>
+      <c r="F400" t="s">
+        <v>38</v>
+      </c>
+      <c r="G400" t="s">
+        <v>327</v>
+      </c>
+      <c r="H400" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="401" spans="1:8">
-      <c r="A401" t="s">
+      <c r="B401" t="s">
         <v>620</v>
+      </c>
+      <c r="C401" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D401" t="s">
+        <v>57</v>
+      </c>
+      <c r="E401" t="s">
+        <v>621</v>
+      </c>
+      <c r="F401" t="s">
+        <v>72</v>
+      </c>
+      <c r="G401" t="s">
+        <v>38</v>
+      </c>
+      <c r="H401" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="402" spans="1:8">
       <c r="B402" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="C402" t="n">
-        <v>3.389</v>
+        <v>3.083</v>
       </c>
       <c r="D402" t="s">
-        <v>591</v>
+        <v>340</v>
       </c>
       <c r="E402" t="s">
-        <v>46</v>
+        <v>415</v>
       </c>
       <c r="F402" t="s">
-        <v>593</v>
+        <v>355</v>
       </c>
       <c r="G402" t="s">
         <v>38</v>
@@ -7548,24 +7575,24 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="405" spans="1:8">
       <c r="B405" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="C405" t="n">
-        <v>3.3055</v>
+        <v>3.389</v>
       </c>
       <c r="D405" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E405" t="s">
-        <v>623</v>
+        <v>46</v>
       </c>
       <c r="F405" t="s">
-        <v>272</v>
+        <v>596</v>
       </c>
       <c r="G405" t="s">
         <v>38</v>
@@ -7581,19 +7608,19 @@
     </row>
     <row r="408" spans="1:8">
       <c r="B408" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="C408" t="n">
-        <v>3.444</v>
+        <v>3.3055</v>
       </c>
       <c r="D408" t="s">
-        <v>415</v>
+        <v>595</v>
       </c>
       <c r="E408" t="s">
-        <v>59</v>
+        <v>626</v>
       </c>
       <c r="F408" t="s">
-        <v>625</v>
+        <v>272</v>
       </c>
       <c r="G408" t="s">
         <v>38</v>
@@ -7604,75 +7631,75 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="411" spans="1:8">
       <c r="B411" t="s">
+        <v>603</v>
+      </c>
+      <c r="C411" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="D411" t="s">
+        <v>415</v>
+      </c>
+      <c r="E411" t="s">
+        <v>59</v>
+      </c>
+      <c r="F411" t="s">
+        <v>628</v>
+      </c>
+      <c r="G411" t="s">
+        <v>38</v>
+      </c>
+      <c r="H411" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="B414" t="s">
         <v>289</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C414" t="n">
         <v>3.292</v>
       </c>
-      <c r="D411" t="s">
-        <v>627</v>
-      </c>
-      <c r="E411" t="s">
+      <c r="D414" t="s">
+        <v>630</v>
+      </c>
+      <c r="E414" t="s">
         <v>341</v>
       </c>
-      <c r="F411" t="s">
+      <c r="F414" t="s">
         <v>267</v>
       </c>
-      <c r="G411" t="s">
-        <v>38</v>
-      </c>
-      <c r="H411" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
-      <c r="B412" t="s">
-        <v>628</v>
-      </c>
-      <c r="C412" t="n">
-        <v>3.6413</v>
-      </c>
-      <c r="D412" t="s">
-        <v>629</v>
-      </c>
-      <c r="E412" t="s">
-        <v>630</v>
-      </c>
-      <c r="F412" t="s">
-        <v>38</v>
-      </c>
-      <c r="G412" t="s">
-        <v>38</v>
-      </c>
-      <c r="H412" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8">
-      <c r="A414" t="s">
-        <v>631</v>
+      <c r="G414" t="s">
+        <v>38</v>
+      </c>
+      <c r="H414" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="B415" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C415" t="n">
-        <v>3.4285</v>
+        <v>3.6413</v>
       </c>
       <c r="D415" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="E415" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F415" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="G415" t="s">
         <v>38</v>
@@ -7683,24 +7710,24 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="418" spans="1:8">
       <c r="B418" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C418" t="n">
-        <v>3.739</v>
+        <v>3.4285</v>
       </c>
       <c r="D418" t="s">
-        <v>191</v>
+        <v>594</v>
       </c>
       <c r="E418" t="s">
         <v>635</v>
       </c>
       <c r="F418" t="s">
-        <v>38</v>
+        <v>391</v>
       </c>
       <c r="G418" t="s">
         <v>38</v>
@@ -7709,46 +7736,46 @@
         <v>38</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
-      <c r="B419" t="s">
+    <row r="420" spans="1:8">
+      <c r="A420" t="s">
         <v>636</v>
       </c>
-      <c r="C419" t="n">
-        <v>3.674</v>
-      </c>
-      <c r="D419" t="s">
+    </row>
+    <row r="421" spans="1:8">
+      <c r="B421" t="s">
         <v>637</v>
       </c>
-      <c r="E419" t="s">
+      <c r="C421" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="D421" t="s">
+        <v>191</v>
+      </c>
+      <c r="E421" t="s">
         <v>638</v>
       </c>
-      <c r="F419" t="s">
-        <v>38</v>
-      </c>
-      <c r="G419" t="s">
-        <v>38</v>
-      </c>
-      <c r="H419" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
-      <c r="A421" t="s">
-        <v>639</v>
+      <c r="F421" t="s">
+        <v>38</v>
+      </c>
+      <c r="G421" t="s">
+        <v>38</v>
+      </c>
+      <c r="H421" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="422" spans="1:8">
       <c r="B422" t="s">
+        <v>639</v>
+      </c>
+      <c r="C422" t="n">
+        <v>3.674</v>
+      </c>
+      <c r="D422" t="s">
         <v>640</v>
       </c>
-      <c r="C422" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="D422" t="s">
+      <c r="E422" t="s">
         <v>641</v>
-      </c>
-      <c r="E422" t="s">
-        <v>642</v>
       </c>
       <c r="F422" t="s">
         <v>38</v>
@@ -7762,15 +7789,15 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="425" spans="1:8">
       <c r="B425" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="C425" t="n">
-        <v>3.406</v>
+        <v>3.74</v>
       </c>
       <c r="D425" t="s">
         <v>644</v>
@@ -7779,7 +7806,7 @@
         <v>645</v>
       </c>
       <c r="F425" t="s">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="G425" t="s">
         <v>38</v>
@@ -7795,19 +7822,19 @@
     </row>
     <row r="428" spans="1:8">
       <c r="B428" t="s">
+        <v>637</v>
+      </c>
+      <c r="C428" t="n">
+        <v>3.406</v>
+      </c>
+      <c r="D428" t="s">
         <v>647</v>
-      </c>
-      <c r="C428" t="n">
-        <v>3.516</v>
-      </c>
-      <c r="D428" t="s">
-        <v>562</v>
       </c>
       <c r="E428" t="s">
         <v>648</v>
       </c>
       <c r="F428" t="s">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="G428" t="s">
         <v>38</v>
@@ -7823,16 +7850,16 @@
     </row>
     <row r="431" spans="1:8">
       <c r="B431" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="C431" t="n">
-        <v>3.879</v>
+        <v>3.516</v>
       </c>
       <c r="D431" t="s">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="E431" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="F431" t="s">
         <v>38</v>
@@ -7846,24 +7873,24 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="434" spans="1:8">
       <c r="B434" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
       <c r="C434" t="n">
-        <v>3.526</v>
+        <v>3.879</v>
       </c>
       <c r="D434" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E434" t="s">
-        <v>653</v>
+        <v>584</v>
       </c>
       <c r="F434" t="s">
-        <v>654</v>
+        <v>38</v>
       </c>
       <c r="G434" t="s">
         <v>38</v>
@@ -7874,24 +7901,24 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="437" spans="1:8">
       <c r="B437" t="s">
+        <v>562</v>
+      </c>
+      <c r="C437" t="n">
+        <v>3.526</v>
+      </c>
+      <c r="D437" t="s">
+        <v>655</v>
+      </c>
+      <c r="E437" t="s">
         <v>656</v>
       </c>
-      <c r="C437" t="n">
-        <v>4</v>
-      </c>
-      <c r="D437" t="s">
-        <v>215</v>
-      </c>
-      <c r="E437" t="s">
-        <v>38</v>
-      </c>
       <c r="F437" t="s">
-        <v>38</v>
+        <v>657</v>
       </c>
       <c r="G437" t="s">
         <v>38</v>
@@ -7902,72 +7929,72 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="440" spans="1:8">
       <c r="B440" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C440" t="n">
+        <v>4</v>
+      </c>
+      <c r="D440" t="s">
+        <v>215</v>
+      </c>
+      <c r="E440" t="s">
+        <v>38</v>
+      </c>
+      <c r="F440" t="s">
+        <v>38</v>
+      </c>
+      <c r="G440" t="s">
+        <v>38</v>
+      </c>
+      <c r="H440" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="B443" t="s">
+        <v>661</v>
+      </c>
+      <c r="C443" t="n">
         <v>3.846</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D443" t="s">
         <v>155</v>
       </c>
-      <c r="E440" t="s">
-        <v>659</v>
-      </c>
-      <c r="F440" t="s">
-        <v>38</v>
-      </c>
-      <c r="G440" t="s">
-        <v>38</v>
-      </c>
-      <c r="H440" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8">
-      <c r="B441" t="s">
-        <v>660</v>
-      </c>
-      <c r="C441" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D441" t="s">
-        <v>661</v>
-      </c>
-      <c r="E441" t="s">
+      <c r="E443" t="s">
         <v>662</v>
       </c>
-      <c r="F441" t="s">
-        <v>38</v>
-      </c>
-      <c r="G441" t="s">
-        <v>38</v>
-      </c>
-      <c r="H441" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
-      <c r="A443" t="s">
-        <v>663</v>
+      <c r="F443" t="s">
+        <v>38</v>
+      </c>
+      <c r="G443" t="s">
+        <v>38</v>
+      </c>
+      <c r="H443" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="B444" t="s">
-        <v>561</v>
+        <v>663</v>
       </c>
       <c r="C444" t="n">
-        <v>3.727</v>
+        <v>3.588</v>
       </c>
       <c r="D444" t="s">
         <v>664</v>
       </c>
       <c r="E444" t="s">
-        <v>115</v>
+        <v>665</v>
       </c>
       <c r="F444" t="s">
         <v>38</v>
@@ -7981,21 +8008,21 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="B447" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
       <c r="C447" t="n">
-        <v>3.568</v>
+        <v>3.727</v>
       </c>
       <c r="D447" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E447" t="s">
-        <v>667</v>
+        <v>115</v>
       </c>
       <c r="F447" t="s">
         <v>38</v>
@@ -8014,10 +8041,10 @@
     </row>
     <row r="450" spans="1:8">
       <c r="B450" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="C450" t="n">
-        <v>3.767</v>
+        <v>3.568</v>
       </c>
       <c r="D450" t="s">
         <v>669</v>
@@ -8042,10 +8069,10 @@
     </row>
     <row r="453" spans="1:8">
       <c r="B453" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="C453" t="n">
-        <v>3.35</v>
+        <v>3.767</v>
       </c>
       <c r="D453" t="s">
         <v>672</v>
@@ -8063,270 +8090,270 @@
         <v>38</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
-      <c r="A455" t="s">
+    <row r="454" spans="1:8">
+      <c r="B454" t="s">
+        <v>556</v>
+      </c>
+      <c r="C454" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="D454" t="s">
         <v>674</v>
       </c>
+      <c r="E454" t="s">
+        <v>408</v>
+      </c>
+      <c r="F454" t="s">
+        <v>38</v>
+      </c>
+      <c r="G454" t="s">
+        <v>38</v>
+      </c>
+      <c r="H454" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="456" spans="1:8">
-      <c r="B456" t="s">
+      <c r="A456" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="B457" t="s">
+        <v>583</v>
+      </c>
+      <c r="C457" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D457" t="s">
+        <v>676</v>
+      </c>
+      <c r="E457" t="s">
+        <v>677</v>
+      </c>
+      <c r="F457" t="s">
+        <v>38</v>
+      </c>
+      <c r="G457" t="s">
+        <v>38</v>
+      </c>
+      <c r="H457" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="B460" t="s">
         <v>399</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C460" t="n">
         <v>3.404</v>
       </c>
-      <c r="D456" t="s">
-        <v>675</v>
-      </c>
-      <c r="E456" t="s">
-        <v>675</v>
-      </c>
-      <c r="F456" t="s">
-        <v>676</v>
-      </c>
-      <c r="G456" t="s">
-        <v>38</v>
-      </c>
-      <c r="H456" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
-      <c r="A458" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
-      <c r="B459" t="s">
-        <v>580</v>
-      </c>
-      <c r="C459" t="n">
+      <c r="D460" t="s">
+        <v>679</v>
+      </c>
+      <c r="E460" t="s">
+        <v>679</v>
+      </c>
+      <c r="F460" t="s">
+        <v>680</v>
+      </c>
+      <c r="G460" t="s">
+        <v>38</v>
+      </c>
+      <c r="H460" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="B463" t="s">
+        <v>583</v>
+      </c>
+      <c r="C463" t="n">
         <v>3.345</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D463" t="s">
         <v>335</v>
       </c>
-      <c r="E459" t="s">
-        <v>678</v>
-      </c>
-      <c r="F459" t="s">
+      <c r="E463" t="s">
+        <v>682</v>
+      </c>
+      <c r="F463" t="s">
         <v>381</v>
       </c>
-      <c r="G459" t="s">
+      <c r="G463" t="s">
         <v>259</v>
       </c>
-      <c r="H459" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
-      <c r="A461" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
-      <c r="B462" t="s">
-        <v>619</v>
-      </c>
-      <c r="C462" t="n">
+      <c r="H463" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="B466" t="s">
+        <v>622</v>
+      </c>
+      <c r="C466" t="n">
         <v>3.409</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D466" t="s">
         <v>47</v>
       </c>
-      <c r="E462" t="s">
+      <c r="E466" t="s">
         <v>46</v>
       </c>
-      <c r="F462" t="s">
+      <c r="F466" t="s">
         <v>48</v>
       </c>
-      <c r="G462" t="s">
-        <v>38</v>
-      </c>
-      <c r="H462" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
-      <c r="A464" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="B465" t="s">
-        <v>681</v>
-      </c>
-      <c r="C465" t="n">
+      <c r="G466" t="s">
+        <v>38</v>
+      </c>
+      <c r="H466" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="B469" t="s">
+        <v>685</v>
+      </c>
+      <c r="C469" t="n">
         <v>4</v>
       </c>
-      <c r="D465" t="s">
+      <c r="D469" t="s">
         <v>215</v>
       </c>
-      <c r="E465" t="s">
-        <v>38</v>
-      </c>
-      <c r="F465" t="s">
-        <v>38</v>
-      </c>
-      <c r="G465" t="s">
-        <v>38</v>
-      </c>
-      <c r="H465" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
-      <c r="A467" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="B468" t="s">
-        <v>683</v>
-      </c>
-      <c r="C468" t="n">
+      <c r="E469" t="s">
+        <v>38</v>
+      </c>
+      <c r="F469" t="s">
+        <v>38</v>
+      </c>
+      <c r="G469" t="s">
+        <v>38</v>
+      </c>
+      <c r="H469" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="B472" t="s">
+        <v>687</v>
+      </c>
+      <c r="C472" t="n">
         <v>3.657</v>
       </c>
-      <c r="D468" t="s">
-        <v>684</v>
-      </c>
-      <c r="E468" t="s">
-        <v>685</v>
-      </c>
-      <c r="F468" t="s">
-        <v>38</v>
-      </c>
-      <c r="G468" t="s">
-        <v>38</v>
-      </c>
-      <c r="H468" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
-      <c r="A470" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
-      <c r="B471" t="s">
-        <v>622</v>
-      </c>
-      <c r="C471" t="n">
+      <c r="D472" t="s">
+        <v>688</v>
+      </c>
+      <c r="E472" t="s">
+        <v>689</v>
+      </c>
+      <c r="F472" t="s">
+        <v>38</v>
+      </c>
+      <c r="G472" t="s">
+        <v>38</v>
+      </c>
+      <c r="H472" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="B475" t="s">
+        <v>625</v>
+      </c>
+      <c r="C475" t="n">
         <v>3.5233</v>
       </c>
-      <c r="D471" t="s">
-        <v>687</v>
-      </c>
-      <c r="E471" t="s">
-        <v>688</v>
-      </c>
-      <c r="F471" t="s">
+      <c r="D475" t="s">
+        <v>691</v>
+      </c>
+      <c r="E475" t="s">
+        <v>692</v>
+      </c>
+      <c r="F475" t="s">
         <v>242</v>
       </c>
-      <c r="G471" t="s">
-        <v>38</v>
-      </c>
-      <c r="H471" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
-      <c r="A473" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8">
-      <c r="B474" t="s">
-        <v>690</v>
-      </c>
-      <c r="C474" t="n">
+      <c r="G475" t="s">
+        <v>38</v>
+      </c>
+      <c r="H475" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="A477" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="B478" t="s">
+        <v>694</v>
+      </c>
+      <c r="C478" t="n">
         <v>3.333</v>
       </c>
-      <c r="D474" t="s">
-        <v>591</v>
-      </c>
-      <c r="E474" t="s">
-        <v>591</v>
-      </c>
-      <c r="F474" t="s">
+      <c r="D478" t="s">
+        <v>594</v>
+      </c>
+      <c r="E478" t="s">
+        <v>594</v>
+      </c>
+      <c r="F478" t="s">
         <v>59</v>
       </c>
-      <c r="G474" t="s">
-        <v>38</v>
-      </c>
-      <c r="H474" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8">
-      <c r="A476" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
-      <c r="B477" t="s">
-        <v>420</v>
-      </c>
-      <c r="C477" t="n">
-        <v>3.6377</v>
-      </c>
-      <c r="D477" t="s">
-        <v>692</v>
-      </c>
-      <c r="E477" t="s">
-        <v>693</v>
-      </c>
-      <c r="F477" t="s">
-        <v>38</v>
-      </c>
-      <c r="G477" t="s">
-        <v>38</v>
-      </c>
-      <c r="H477" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8">
-      <c r="A479" t="s">
-        <v>694</v>
+      <c r="G478" t="s">
+        <v>38</v>
+      </c>
+      <c r="H478" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="480" spans="1:8">
-      <c r="B480" t="s">
+      <c r="A480" t="s">
         <v>695</v>
-      </c>
-      <c r="C480" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="D480" t="s">
-        <v>696</v>
-      </c>
-      <c r="E480" t="s">
-        <v>697</v>
-      </c>
-      <c r="F480" t="s">
-        <v>698</v>
-      </c>
-      <c r="G480" t="s">
-        <v>38</v>
-      </c>
-      <c r="H480" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="481" spans="1:8">
       <c r="B481" t="s">
-        <v>606</v>
+        <v>420</v>
       </c>
       <c r="C481" t="n">
-        <v>3.595</v>
+        <v>3.6377</v>
       </c>
       <c r="D481" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E481" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F481" t="s">
         <v>38</v>
@@ -8340,103 +8367,103 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="484" spans="1:8">
       <c r="B484" t="s">
+        <v>699</v>
+      </c>
+      <c r="C484" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="D484" t="s">
+        <v>700</v>
+      </c>
+      <c r="E484" t="s">
+        <v>701</v>
+      </c>
+      <c r="F484" t="s">
         <v>702</v>
       </c>
-      <c r="C484" t="n">
+      <c r="G484" t="s">
+        <v>38</v>
+      </c>
+      <c r="H484" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="B485" t="s">
+        <v>609</v>
+      </c>
+      <c r="C485" t="n">
+        <v>3.595</v>
+      </c>
+      <c r="D485" t="s">
+        <v>703</v>
+      </c>
+      <c r="E485" t="s">
+        <v>704</v>
+      </c>
+      <c r="F485" t="s">
+        <v>38</v>
+      </c>
+      <c r="G485" t="s">
+        <v>38</v>
+      </c>
+      <c r="H485" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="B488" t="s">
+        <v>706</v>
+      </c>
+      <c r="C488" t="n">
         <v>4</v>
       </c>
-      <c r="D484" t="s">
+      <c r="D488" t="s">
         <v>215</v>
       </c>
-      <c r="E484" t="s">
-        <v>38</v>
-      </c>
-      <c r="F484" t="s">
-        <v>38</v>
-      </c>
-      <c r="G484" t="s">
-        <v>38</v>
-      </c>
-      <c r="H484" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
-      <c r="A486" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
-      <c r="B487" t="s">
-        <v>544</v>
-      </c>
-      <c r="C487" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D487" t="s">
-        <v>218</v>
-      </c>
-      <c r="E487" t="s">
-        <v>121</v>
-      </c>
-      <c r="F487" t="s">
-        <v>38</v>
-      </c>
-      <c r="G487" t="s">
-        <v>38</v>
-      </c>
-      <c r="H487" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="A489" t="s">
-        <v>704</v>
+      <c r="E488" t="s">
+        <v>38</v>
+      </c>
+      <c r="F488" t="s">
+        <v>38</v>
+      </c>
+      <c r="G488" t="s">
+        <v>38</v>
+      </c>
+      <c r="H488" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="490" spans="1:8">
-      <c r="B490" t="s">
-        <v>705</v>
-      </c>
-      <c r="C490" t="n">
-        <v>3.6403</v>
-      </c>
-      <c r="D490" t="s">
-        <v>706</v>
-      </c>
-      <c r="E490" t="s">
+      <c r="A490" t="s">
         <v>707</v>
-      </c>
-      <c r="F490" t="s">
-        <v>708</v>
-      </c>
-      <c r="G490" t="s">
-        <v>709</v>
-      </c>
-      <c r="H490" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="491" spans="1:8">
       <c r="B491" t="s">
-        <v>710</v>
+        <v>544</v>
       </c>
       <c r="C491" t="n">
-        <v>3.675</v>
+        <v>3.833</v>
       </c>
       <c r="D491" t="s">
-        <v>711</v>
+        <v>218</v>
       </c>
       <c r="E491" t="s">
-        <v>712</v>
+        <v>121</v>
       </c>
       <c r="F491" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="G491" t="s">
         <v>38</v>
@@ -8447,654 +8474,654 @@
     </row>
     <row r="493" spans="1:8">
       <c r="A493" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="494" spans="1:8">
       <c r="B494" t="s">
-        <v>98</v>
+        <v>709</v>
       </c>
       <c r="C494" t="n">
-        <v>3.485</v>
+        <v>3.6403</v>
       </c>
       <c r="D494" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E494" t="s">
-        <v>114</v>
+        <v>711</v>
       </c>
       <c r="F494" t="s">
-        <v>38</v>
+        <v>712</v>
       </c>
       <c r="G494" t="s">
-        <v>89</v>
+        <v>713</v>
       </c>
       <c r="H494" t="s">
-        <v>38</v>
+        <v>713</v>
       </c>
     </row>
     <row r="495" spans="1:8">
       <c r="B495" t="s">
+        <v>714</v>
+      </c>
+      <c r="C495" t="n">
+        <v>3.675</v>
+      </c>
+      <c r="D495" t="s">
         <v>715</v>
       </c>
-      <c r="C495" t="n">
-        <v>3.256</v>
-      </c>
-      <c r="D495" t="s">
-        <v>205</v>
-      </c>
       <c r="E495" t="s">
-        <v>494</v>
+        <v>716</v>
       </c>
       <c r="F495" t="s">
-        <v>716</v>
+        <v>254</v>
       </c>
       <c r="G495" t="s">
         <v>38</v>
       </c>
       <c r="H495" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8">
-      <c r="B496" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" t="s">
         <v>717</v>
       </c>
-      <c r="C496" t="n">
-        <v>3.2945</v>
-      </c>
-      <c r="D496" t="s">
-        <v>133</v>
-      </c>
-      <c r="E496" t="s">
+    </row>
+    <row r="498" spans="1:8">
+      <c r="B498" t="s">
+        <v>98</v>
+      </c>
+      <c r="C498" t="n">
+        <v>3.485</v>
+      </c>
+      <c r="D498" t="s">
         <v>718</v>
       </c>
-      <c r="F496" t="s">
-        <v>719</v>
-      </c>
-      <c r="G496" t="s">
-        <v>38</v>
-      </c>
-      <c r="H496" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
-      <c r="A498" t="s">
-        <v>720</v>
+      <c r="E498" t="s">
+        <v>114</v>
+      </c>
+      <c r="F498" t="s">
+        <v>38</v>
+      </c>
+      <c r="G498" t="s">
+        <v>89</v>
+      </c>
+      <c r="H498" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="499" spans="1:8">
       <c r="B499" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C499" t="n">
-        <v>3.293</v>
+        <v>3.256</v>
       </c>
       <c r="D499" t="s">
-        <v>722</v>
+        <v>205</v>
       </c>
       <c r="E499" t="s">
-        <v>723</v>
+        <v>494</v>
       </c>
       <c r="F499" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G499" t="s">
         <v>38</v>
       </c>
       <c r="H499" t="s">
-        <v>38</v>
+        <v>327</v>
       </c>
     </row>
     <row r="500" spans="1:8">
       <c r="B500" t="s">
+        <v>721</v>
+      </c>
+      <c r="C500" t="n">
+        <v>3.2945</v>
+      </c>
+      <c r="D500" t="s">
+        <v>133</v>
+      </c>
+      <c r="E500" t="s">
+        <v>722</v>
+      </c>
+      <c r="F500" t="s">
+        <v>723</v>
+      </c>
+      <c r="G500" t="s">
+        <v>38</v>
+      </c>
+      <c r="H500" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="A502" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="B503" t="s">
         <v>725</v>
       </c>
-      <c r="C500" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D500" t="s">
+      <c r="C503" t="n">
+        <v>3.293</v>
+      </c>
+      <c r="D503" t="s">
         <v>726</v>
       </c>
-      <c r="E500" t="s">
-        <v>165</v>
-      </c>
-      <c r="F500" t="s">
-        <v>38</v>
-      </c>
-      <c r="G500" t="s">
-        <v>38</v>
-      </c>
-      <c r="H500" t="s">
+      <c r="E503" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="501" spans="1:8">
-      <c r="B501" t="s">
+      <c r="F503" t="s">
         <v>728</v>
       </c>
-      <c r="C501" t="n">
-        <v>3.281</v>
-      </c>
-      <c r="D501" t="s">
-        <v>266</v>
-      </c>
-      <c r="E501" t="s">
-        <v>729</v>
-      </c>
-      <c r="F501" t="s">
-        <v>408</v>
-      </c>
-      <c r="G501" t="s">
-        <v>38</v>
-      </c>
-      <c r="H501" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8">
-      <c r="A503" t="s">
-        <v>730</v>
+      <c r="G503" t="s">
+        <v>38</v>
+      </c>
+      <c r="H503" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="504" spans="1:8">
       <c r="B504" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C504" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="D504" t="s">
+        <v>730</v>
+      </c>
+      <c r="E504" t="s">
+        <v>165</v>
+      </c>
+      <c r="F504" t="s">
+        <v>38</v>
+      </c>
+      <c r="G504" t="s">
+        <v>38</v>
+      </c>
+      <c r="H504" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="B505" t="s">
+        <v>732</v>
+      </c>
+      <c r="C505" t="n">
+        <v>3.281</v>
+      </c>
+      <c r="D505" t="s">
+        <v>266</v>
+      </c>
+      <c r="E505" t="s">
+        <v>733</v>
+      </c>
+      <c r="F505" t="s">
+        <v>408</v>
+      </c>
+      <c r="G505" t="s">
+        <v>38</v>
+      </c>
+      <c r="H505" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="B508" t="s">
+        <v>721</v>
+      </c>
+      <c r="C508" t="n">
         <v>3.316</v>
       </c>
-      <c r="D504" t="s">
+      <c r="D508" t="s">
         <v>51</v>
       </c>
-      <c r="E504" t="s">
-        <v>731</v>
-      </c>
-      <c r="F504" t="s">
+      <c r="E508" t="s">
+        <v>735</v>
+      </c>
+      <c r="F508" t="s">
         <v>50</v>
       </c>
-      <c r="G504" t="s">
-        <v>38</v>
-      </c>
-      <c r="H504" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="A506" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
-      <c r="B507" t="s">
-        <v>733</v>
-      </c>
-      <c r="C507" t="n">
+      <c r="G508" t="s">
+        <v>38</v>
+      </c>
+      <c r="H508" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="B511" t="s">
+        <v>737</v>
+      </c>
+      <c r="C511" t="n">
         <v>3.5015</v>
       </c>
-      <c r="D507" t="s">
-        <v>734</v>
-      </c>
-      <c r="E507" t="s">
-        <v>735</v>
-      </c>
-      <c r="F507" t="s">
-        <v>736</v>
-      </c>
-      <c r="G507" t="s">
-        <v>38</v>
-      </c>
-      <c r="H507" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8">
-      <c r="A509" t="s">
+      <c r="D511" t="s">
+        <v>738</v>
+      </c>
+      <c r="E511" t="s">
+        <v>739</v>
+      </c>
+      <c r="F511" t="s">
+        <v>740</v>
+      </c>
+      <c r="G511" t="s">
+        <v>38</v>
+      </c>
+      <c r="H511" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="B514" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="510" spans="1:8">
-      <c r="B510" t="s">
-        <v>733</v>
-      </c>
-      <c r="C510" t="n">
+      <c r="C514" t="n">
         <v>3.6275</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D514" t="s">
         <v>265</v>
       </c>
-      <c r="E510" t="s">
+      <c r="E514" t="s">
         <v>119</v>
       </c>
-      <c r="F510" t="s">
-        <v>38</v>
-      </c>
-      <c r="G510" t="s">
-        <v>38</v>
-      </c>
-      <c r="H510" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
-      <c r="A512" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
-      <c r="B513" t="s">
-        <v>739</v>
-      </c>
-      <c r="C513" t="n">
+      <c r="F514" t="s">
+        <v>38</v>
+      </c>
+      <c r="G514" t="s">
+        <v>38</v>
+      </c>
+      <c r="H514" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="B517" t="s">
+        <v>743</v>
+      </c>
+      <c r="C517" t="n">
         <v>3.593</v>
       </c>
-      <c r="D513" t="s">
-        <v>740</v>
-      </c>
-      <c r="E513" t="s">
-        <v>741</v>
-      </c>
-      <c r="F513" t="s">
-        <v>742</v>
-      </c>
-      <c r="G513" t="s">
-        <v>38</v>
-      </c>
-      <c r="H513" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8">
-      <c r="A515" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
-      <c r="B516" t="s">
+      <c r="D517" t="s">
+        <v>744</v>
+      </c>
+      <c r="E517" t="s">
+        <v>745</v>
+      </c>
+      <c r="F517" t="s">
+        <v>746</v>
+      </c>
+      <c r="G517" t="s">
+        <v>38</v>
+      </c>
+      <c r="H517" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="B520" t="s">
         <v>410</v>
       </c>
-      <c r="C516" t="n">
+      <c r="C520" t="n">
         <v>3.51</v>
       </c>
-      <c r="D516" t="s">
-        <v>744</v>
-      </c>
-      <c r="E516" t="s">
-        <v>745</v>
-      </c>
-      <c r="F516" t="s">
-        <v>746</v>
-      </c>
-      <c r="G516" t="s">
-        <v>747</v>
-      </c>
-      <c r="H516" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="A518" t="s">
+      <c r="D520" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="519" spans="1:8">
-      <c r="B519" t="s">
-        <v>715</v>
-      </c>
-      <c r="C519" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D519" t="s">
-        <v>415</v>
-      </c>
-      <c r="E519" t="s">
-        <v>57</v>
-      </c>
-      <c r="F519" t="s">
-        <v>38</v>
-      </c>
-      <c r="G519" t="s">
-        <v>38</v>
-      </c>
-      <c r="H519" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
-      <c r="A521" t="s">
+      <c r="E520" t="s">
         <v>749</v>
       </c>
+      <c r="F520" t="s">
+        <v>750</v>
+      </c>
+      <c r="G520" t="s">
+        <v>751</v>
+      </c>
+      <c r="H520" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="522" spans="1:8">
-      <c r="B522" t="s">
-        <v>750</v>
-      </c>
-      <c r="C522" t="n">
-        <v>2.5325</v>
-      </c>
-      <c r="D522" t="s">
-        <v>751</v>
-      </c>
-      <c r="E522" t="s">
+      <c r="A522" t="s">
         <v>752</v>
-      </c>
-      <c r="F522" t="s">
-        <v>753</v>
-      </c>
-      <c r="G522" t="s">
-        <v>754</v>
-      </c>
-      <c r="H522" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="523" spans="1:8">
       <c r="B523" t="s">
-        <v>756</v>
+        <v>719</v>
       </c>
       <c r="C523" t="n">
-        <v>3.675</v>
+        <v>3.667</v>
       </c>
       <c r="D523" t="s">
-        <v>757</v>
+        <v>415</v>
       </c>
       <c r="E523" t="s">
-        <v>758</v>
+        <v>57</v>
       </c>
       <c r="F523" t="s">
-        <v>564</v>
+        <v>38</v>
       </c>
       <c r="G523" t="s">
-        <v>759</v>
+        <v>38</v>
       </c>
       <c r="H523" t="s">
-        <v>760</v>
+        <v>38</v>
       </c>
     </row>
     <row r="525" spans="1:8">
       <c r="A525" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="526" spans="1:8">
       <c r="B526" t="s">
+        <v>754</v>
+      </c>
+      <c r="C526" t="n">
+        <v>2.5325</v>
+      </c>
+      <c r="D526" t="s">
+        <v>755</v>
+      </c>
+      <c r="E526" t="s">
+        <v>756</v>
+      </c>
+      <c r="F526" t="s">
+        <v>757</v>
+      </c>
+      <c r="G526" t="s">
+        <v>758</v>
+      </c>
+      <c r="H526" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="B527" t="s">
+        <v>760</v>
+      </c>
+      <c r="C527" t="n">
+        <v>3.675</v>
+      </c>
+      <c r="D527" t="s">
+        <v>761</v>
+      </c>
+      <c r="E527" t="s">
         <v>762</v>
       </c>
-      <c r="C526" t="n">
+      <c r="F527" t="s">
+        <v>558</v>
+      </c>
+      <c r="G527" t="s">
+        <v>763</v>
+      </c>
+      <c r="H527" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="B530" t="s">
+        <v>766</v>
+      </c>
+      <c r="C530" t="n">
         <v>3.2</v>
       </c>
-      <c r="D526" t="s">
-        <v>763</v>
-      </c>
-      <c r="E526" t="s">
-        <v>764</v>
-      </c>
-      <c r="F526" t="s">
-        <v>765</v>
-      </c>
-      <c r="G526" t="s">
-        <v>38</v>
-      </c>
-      <c r="H526" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8">
-      <c r="A528" t="s">
+      <c r="D530" t="s">
+        <v>767</v>
+      </c>
+      <c r="E530" t="s">
+        <v>768</v>
+      </c>
+      <c r="F530" t="s">
+        <v>769</v>
+      </c>
+      <c r="G530" t="s">
+        <v>38</v>
+      </c>
+      <c r="H530" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="B533" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="529" spans="1:8">
-      <c r="B529" t="s">
-        <v>762</v>
-      </c>
-      <c r="C529" t="n">
+      <c r="C533" t="n">
         <v>4</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D533" t="s">
         <v>215</v>
       </c>
-      <c r="E529" t="s">
-        <v>38</v>
-      </c>
-      <c r="F529" t="s">
-        <v>38</v>
-      </c>
-      <c r="G529" t="s">
-        <v>38</v>
-      </c>
-      <c r="H529" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8">
-      <c r="A531" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8">
-      <c r="B532" t="s">
-        <v>715</v>
-      </c>
-      <c r="C532" t="n">
+      <c r="E533" t="s">
+        <v>38</v>
+      </c>
+      <c r="F533" t="s">
+        <v>38</v>
+      </c>
+      <c r="G533" t="s">
+        <v>38</v>
+      </c>
+      <c r="H533" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="B536" t="s">
+        <v>719</v>
+      </c>
+      <c r="C536" t="n">
         <v>4</v>
       </c>
-      <c r="D532" t="s">
+      <c r="D536" t="s">
         <v>215</v>
       </c>
-      <c r="E532" t="s">
-        <v>38</v>
-      </c>
-      <c r="F532" t="s">
-        <v>38</v>
-      </c>
-      <c r="G532" t="s">
-        <v>38</v>
-      </c>
-      <c r="H532" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
-      <c r="A534" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
-      <c r="B535" t="s">
-        <v>769</v>
-      </c>
-      <c r="C535" t="n">
+      <c r="E536" t="s">
+        <v>38</v>
+      </c>
+      <c r="F536" t="s">
+        <v>38</v>
+      </c>
+      <c r="G536" t="s">
+        <v>38</v>
+      </c>
+      <c r="H536" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="B539" t="s">
+        <v>773</v>
+      </c>
+      <c r="C539" t="n">
         <v>3.371</v>
       </c>
-      <c r="D535" t="s">
-        <v>770</v>
-      </c>
-      <c r="E535" t="s">
-        <v>771</v>
-      </c>
-      <c r="F535" t="s">
-        <v>736</v>
-      </c>
-      <c r="G535" t="s">
-        <v>38</v>
-      </c>
-      <c r="H535" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
-      <c r="A537" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="B538" t="s">
-        <v>710</v>
-      </c>
-      <c r="C538" t="n">
+      <c r="D539" t="s">
+        <v>774</v>
+      </c>
+      <c r="E539" t="s">
+        <v>775</v>
+      </c>
+      <c r="F539" t="s">
+        <v>740</v>
+      </c>
+      <c r="G539" t="s">
+        <v>38</v>
+      </c>
+      <c r="H539" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="B542" t="s">
+        <v>714</v>
+      </c>
+      <c r="C542" t="n">
         <v>3.342</v>
       </c>
-      <c r="D538" t="s">
-        <v>773</v>
-      </c>
-      <c r="E538" t="s">
+      <c r="D542" t="s">
+        <v>777</v>
+      </c>
+      <c r="E542" t="s">
         <v>512</v>
       </c>
-      <c r="F538" t="s">
+      <c r="F542" t="s">
         <v>416</v>
       </c>
-      <c r="G538" t="s">
+      <c r="G542" t="s">
         <v>247</v>
       </c>
-      <c r="H538" t="s">
+      <c r="H542" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
-      <c r="A540" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
-      <c r="B541" t="s">
-        <v>775</v>
-      </c>
-      <c r="C541" t="n">
+    <row r="544" spans="1:8">
+      <c r="A544" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="B545" t="s">
+        <v>779</v>
+      </c>
+      <c r="C545" t="n">
         <v>3.3965</v>
       </c>
-      <c r="D541" t="s">
-        <v>776</v>
-      </c>
-      <c r="E541" t="s">
-        <v>777</v>
-      </c>
-      <c r="F541" t="s">
-        <v>38</v>
-      </c>
-      <c r="G541" t="s">
-        <v>38</v>
-      </c>
-      <c r="H541" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
-      <c r="A543" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8">
-      <c r="B544" t="s">
-        <v>779</v>
-      </c>
-      <c r="C544" t="n">
+      <c r="D545" t="s">
+        <v>780</v>
+      </c>
+      <c r="E545" t="s">
+        <v>781</v>
+      </c>
+      <c r="F545" t="s">
+        <v>38</v>
+      </c>
+      <c r="G545" t="s">
+        <v>38</v>
+      </c>
+      <c r="H545" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="B548" t="s">
+        <v>783</v>
+      </c>
+      <c r="C548" t="n">
         <v>4</v>
       </c>
-      <c r="D544" t="s">
+      <c r="D548" t="s">
         <v>215</v>
       </c>
-      <c r="E544" t="s">
-        <v>38</v>
-      </c>
-      <c r="F544" t="s">
-        <v>38</v>
-      </c>
-      <c r="G544" t="s">
-        <v>38</v>
-      </c>
-      <c r="H544" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
-      <c r="A546" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8">
-      <c r="B547" t="s">
-        <v>756</v>
-      </c>
-      <c r="C547" t="n">
+      <c r="E548" t="s">
+        <v>38</v>
+      </c>
+      <c r="F548" t="s">
+        <v>38</v>
+      </c>
+      <c r="G548" t="s">
+        <v>38</v>
+      </c>
+      <c r="H548" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="B551" t="s">
+        <v>760</v>
+      </c>
+      <c r="C551" t="n">
         <v>3.875</v>
       </c>
-      <c r="D547" t="s">
-        <v>781</v>
-      </c>
-      <c r="E547" t="s">
+      <c r="D551" t="s">
+        <v>785</v>
+      </c>
+      <c r="E551" t="s">
         <v>355</v>
       </c>
-      <c r="F547" t="s">
-        <v>38</v>
-      </c>
-      <c r="G547" t="s">
-        <v>38</v>
-      </c>
-      <c r="H547" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
-      <c r="A549" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8">
-      <c r="B550" t="s">
-        <v>733</v>
-      </c>
-      <c r="C550" t="n">
-        <v>4</v>
-      </c>
-      <c r="D550" t="s">
-        <v>215</v>
-      </c>
-      <c r="E550" t="s">
-        <v>38</v>
-      </c>
-      <c r="F550" t="s">
-        <v>38</v>
-      </c>
-      <c r="G550" t="s">
-        <v>38</v>
-      </c>
-      <c r="H550" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
-      <c r="A552" t="s">
-        <v>783</v>
+      <c r="F551" t="s">
+        <v>38</v>
+      </c>
+      <c r="G551" t="s">
+        <v>38</v>
+      </c>
+      <c r="H551" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="553" spans="1:8">
-      <c r="B553" t="s">
-        <v>784</v>
-      </c>
-      <c r="C553" t="n">
-        <v>4</v>
-      </c>
-      <c r="D553" t="s">
-        <v>215</v>
-      </c>
-      <c r="E553" t="s">
-        <v>38</v>
-      </c>
-      <c r="F553" t="s">
-        <v>38</v>
-      </c>
-      <c r="G553" t="s">
-        <v>38</v>
-      </c>
-      <c r="H553" t="s">
-        <v>38</v>
+      <c r="A553" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="554" spans="1:8">
       <c r="B554" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="C554" t="n">
         <v>4</v>
@@ -9117,427 +9144,427 @@
     </row>
     <row r="556" spans="1:8">
       <c r="A556" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="557" spans="1:8">
       <c r="B557" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C557" t="n">
+        <v>4</v>
+      </c>
+      <c r="D557" t="s">
+        <v>215</v>
+      </c>
+      <c r="E557" t="s">
+        <v>38</v>
+      </c>
+      <c r="F557" t="s">
+        <v>38</v>
+      </c>
+      <c r="G557" t="s">
+        <v>38</v>
+      </c>
+      <c r="H557" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="B558" t="s">
+        <v>714</v>
+      </c>
+      <c r="C558" t="n">
+        <v>4</v>
+      </c>
+      <c r="D558" t="s">
+        <v>215</v>
+      </c>
+      <c r="E558" t="s">
+        <v>38</v>
+      </c>
+      <c r="F558" t="s">
+        <v>38</v>
+      </c>
+      <c r="G558" t="s">
+        <v>38</v>
+      </c>
+      <c r="H558" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="B561" t="s">
+        <v>790</v>
+      </c>
+      <c r="C561" t="n">
         <v>2.906</v>
       </c>
-      <c r="D557" t="s">
+      <c r="D561" t="s">
         <v>355</v>
       </c>
-      <c r="E557" t="s">
-        <v>787</v>
-      </c>
-      <c r="F557" t="s">
+      <c r="E561" t="s">
+        <v>791</v>
+      </c>
+      <c r="F561" t="s">
         <v>355</v>
       </c>
-      <c r="G557" t="s">
-        <v>38</v>
-      </c>
-      <c r="H557" t="s">
+      <c r="G561" t="s">
+        <v>38</v>
+      </c>
+      <c r="H561" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
-      <c r="A559" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="560" spans="1:8">
-      <c r="B560" t="s">
-        <v>789</v>
-      </c>
-      <c r="C560" t="n">
+    <row r="563" spans="1:8">
+      <c r="A563" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="B564" t="s">
+        <v>793</v>
+      </c>
+      <c r="C564" t="n">
         <v>3.3865</v>
       </c>
-      <c r="D560" t="s">
+      <c r="D564" t="s">
         <v>205</v>
       </c>
-      <c r="E560" t="s">
+      <c r="E564" t="s">
         <v>261</v>
       </c>
-      <c r="F560" t="s">
-        <v>38</v>
-      </c>
-      <c r="G560" t="s">
-        <v>38</v>
-      </c>
-      <c r="H560" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="562" spans="1:8">
-      <c r="A562" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="563" spans="1:8">
-      <c r="B563" t="s">
-        <v>775</v>
-      </c>
-      <c r="C563" t="n">
+      <c r="F564" t="s">
+        <v>38</v>
+      </c>
+      <c r="G564" t="s">
+        <v>38</v>
+      </c>
+      <c r="H564" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="B567" t="s">
+        <v>779</v>
+      </c>
+      <c r="C567" t="n">
         <v>3.694</v>
       </c>
-      <c r="D563" t="s">
-        <v>791</v>
-      </c>
-      <c r="E563" t="s">
-        <v>792</v>
-      </c>
-      <c r="F563" t="s">
-        <v>38</v>
-      </c>
-      <c r="G563" t="s">
-        <v>38</v>
-      </c>
-      <c r="H563" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="565" spans="1:8">
-      <c r="A565" t="s">
+      <c r="D567" t="s">
+        <v>795</v>
+      </c>
+      <c r="E567" t="s">
+        <v>796</v>
+      </c>
+      <c r="F567" t="s">
+        <v>38</v>
+      </c>
+      <c r="G567" t="s">
+        <v>38</v>
+      </c>
+      <c r="H567" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="B570" t="s">
+        <v>798</v>
+      </c>
+      <c r="C570" t="n">
+        <v>3.917</v>
+      </c>
+      <c r="D570" t="s">
+        <v>271</v>
+      </c>
+      <c r="E570" t="s">
+        <v>272</v>
+      </c>
+      <c r="F570" t="s">
+        <v>38</v>
+      </c>
+      <c r="G570" t="s">
+        <v>38</v>
+      </c>
+      <c r="H570" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="B573" t="s">
+        <v>729</v>
+      </c>
+      <c r="C573" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="D573" t="s">
+        <v>800</v>
+      </c>
+      <c r="E573" t="s">
+        <v>801</v>
+      </c>
+      <c r="F573" t="s">
+        <v>38</v>
+      </c>
+      <c r="G573" t="s">
+        <v>38</v>
+      </c>
+      <c r="H573" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="B576" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="566" spans="1:8">
-      <c r="B566" t="s">
-        <v>794</v>
-      </c>
-      <c r="C566" t="n">
-        <v>3.917</v>
-      </c>
-      <c r="D566" t="s">
-        <v>271</v>
-      </c>
-      <c r="E566" t="s">
-        <v>272</v>
-      </c>
-      <c r="F566" t="s">
-        <v>38</v>
-      </c>
-      <c r="G566" t="s">
-        <v>38</v>
-      </c>
-      <c r="H566" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8">
-      <c r="A568" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8">
-      <c r="B569" t="s">
+      <c r="C576" t="n">
+        <v>3.368</v>
+      </c>
+      <c r="D576" t="s">
+        <v>51</v>
+      </c>
+      <c r="E576" t="s">
+        <v>349</v>
+      </c>
+      <c r="F576" t="s">
+        <v>803</v>
+      </c>
+      <c r="G576" t="s">
+        <v>38</v>
+      </c>
+      <c r="H576" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="B579" t="s">
+        <v>783</v>
+      </c>
+      <c r="C579" t="n">
+        <v>3.564</v>
+      </c>
+      <c r="D579" t="s">
+        <v>805</v>
+      </c>
+      <c r="E579" t="s">
+        <v>99</v>
+      </c>
+      <c r="F579" t="s">
+        <v>38</v>
+      </c>
+      <c r="G579" t="s">
+        <v>38</v>
+      </c>
+      <c r="H579" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="B582" t="s">
+        <v>807</v>
+      </c>
+      <c r="C582" t="n">
+        <v>3.938</v>
+      </c>
+      <c r="D582" t="s">
+        <v>808</v>
+      </c>
+      <c r="E582" t="s">
+        <v>267</v>
+      </c>
+      <c r="F582" t="s">
+        <v>38</v>
+      </c>
+      <c r="G582" t="s">
+        <v>38</v>
+      </c>
+      <c r="H582" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="B585" t="s">
         <v>725</v>
       </c>
-      <c r="C569" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="D569" t="s">
-        <v>796</v>
-      </c>
-      <c r="E569" t="s">
-        <v>797</v>
-      </c>
-      <c r="F569" t="s">
-        <v>38</v>
-      </c>
-      <c r="G569" t="s">
-        <v>38</v>
-      </c>
-      <c r="H569" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8">
-      <c r="A571" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8">
-      <c r="B572" t="s">
-        <v>789</v>
-      </c>
-      <c r="C572" t="n">
-        <v>3.368</v>
-      </c>
-      <c r="D572" t="s">
-        <v>51</v>
-      </c>
-      <c r="E572" t="s">
-        <v>349</v>
-      </c>
-      <c r="F572" t="s">
-        <v>799</v>
-      </c>
-      <c r="G572" t="s">
-        <v>38</v>
-      </c>
-      <c r="H572" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8">
-      <c r="A574" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8">
-      <c r="B575" t="s">
-        <v>779</v>
-      </c>
-      <c r="C575" t="n">
-        <v>3.564</v>
-      </c>
-      <c r="D575" t="s">
-        <v>801</v>
-      </c>
-      <c r="E575" t="s">
-        <v>99</v>
-      </c>
-      <c r="F575" t="s">
-        <v>38</v>
-      </c>
-      <c r="G575" t="s">
-        <v>38</v>
-      </c>
-      <c r="H575" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8">
-      <c r="A577" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8">
-      <c r="B578" t="s">
-        <v>803</v>
-      </c>
-      <c r="C578" t="n">
-        <v>3.938</v>
-      </c>
-      <c r="D578" t="s">
-        <v>804</v>
-      </c>
-      <c r="E578" t="s">
-        <v>267</v>
-      </c>
-      <c r="F578" t="s">
-        <v>38</v>
-      </c>
-      <c r="G578" t="s">
-        <v>38</v>
-      </c>
-      <c r="H578" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="580" spans="1:8">
-      <c r="A580" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="581" spans="1:8">
-      <c r="B581" t="s">
-        <v>721</v>
-      </c>
-      <c r="C581" t="n">
+      <c r="C585" t="n">
         <v>3.886</v>
       </c>
-      <c r="D581" t="s">
-        <v>806</v>
-      </c>
-      <c r="E581" t="s">
+      <c r="D585" t="s">
+        <v>810</v>
+      </c>
+      <c r="E585" t="s">
+        <v>811</v>
+      </c>
+      <c r="F585" t="s">
+        <v>38</v>
+      </c>
+      <c r="G585" t="s">
+        <v>38</v>
+      </c>
+      <c r="H585" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="B588" t="s">
         <v>807</v>
       </c>
-      <c r="F581" t="s">
-        <v>38</v>
-      </c>
-      <c r="G581" t="s">
-        <v>38</v>
-      </c>
-      <c r="H581" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="583" spans="1:8">
-      <c r="A583" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="584" spans="1:8">
-      <c r="B584" t="s">
-        <v>803</v>
-      </c>
-      <c r="C584" t="n">
+      <c r="C588" t="n">
         <v>3.829</v>
       </c>
-      <c r="D584" t="s">
-        <v>809</v>
-      </c>
-      <c r="E584" t="s">
-        <v>810</v>
-      </c>
-      <c r="F584" t="s">
-        <v>38</v>
-      </c>
-      <c r="G584" t="s">
-        <v>38</v>
-      </c>
-      <c r="H584" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="586" spans="1:8">
-      <c r="A586" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="587" spans="1:8">
-      <c r="B587" t="s">
-        <v>812</v>
-      </c>
-      <c r="C587" t="n">
+      <c r="D588" t="s">
+        <v>813</v>
+      </c>
+      <c r="E588" t="s">
+        <v>814</v>
+      </c>
+      <c r="F588" t="s">
+        <v>38</v>
+      </c>
+      <c r="G588" t="s">
+        <v>38</v>
+      </c>
+      <c r="H588" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="B591" t="s">
+        <v>816</v>
+      </c>
+      <c r="C591" t="n">
         <v>3.906</v>
       </c>
-      <c r="D587" t="s">
+      <c r="D591" t="s">
         <v>434</v>
       </c>
-      <c r="E587" t="s">
+      <c r="E591" t="s">
         <v>138</v>
       </c>
-      <c r="F587" t="s">
-        <v>38</v>
-      </c>
-      <c r="G587" t="s">
-        <v>38</v>
-      </c>
-      <c r="H587" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="589" spans="1:8">
-      <c r="A589" t="s">
+      <c r="F591" t="s">
+        <v>38</v>
+      </c>
+      <c r="G591" t="s">
+        <v>38</v>
+      </c>
+      <c r="H591" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="B594" t="s">
+        <v>732</v>
+      </c>
+      <c r="C594" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D594" t="s">
+        <v>134</v>
+      </c>
+      <c r="E594" t="s">
+        <v>133</v>
+      </c>
+      <c r="F594" t="s">
+        <v>38</v>
+      </c>
+      <c r="G594" t="s">
+        <v>38</v>
+      </c>
+      <c r="H594" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="B597" t="s">
+        <v>807</v>
+      </c>
+      <c r="C597" t="n">
+        <v>3.829</v>
+      </c>
+      <c r="D597" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="590" spans="1:8">
-      <c r="B590" t="s">
-        <v>728</v>
-      </c>
-      <c r="C590" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D590" t="s">
-        <v>134</v>
-      </c>
-      <c r="E590" t="s">
-        <v>133</v>
-      </c>
-      <c r="F590" t="s">
-        <v>38</v>
-      </c>
-      <c r="G590" t="s">
-        <v>38</v>
-      </c>
-      <c r="H590" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="592" spans="1:8">
-      <c r="A592" t="s">
+      <c r="E597" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="593" spans="1:8">
-      <c r="B593" t="s">
-        <v>803</v>
-      </c>
-      <c r="C593" t="n">
-        <v>3.829</v>
-      </c>
-      <c r="D593" t="s">
-        <v>809</v>
-      </c>
-      <c r="E593" t="s">
-        <v>810</v>
-      </c>
-      <c r="F593" t="s">
-        <v>38</v>
-      </c>
-      <c r="G593" t="s">
-        <v>38</v>
-      </c>
-      <c r="H593" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="595" spans="1:8">
-      <c r="A595" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8">
-      <c r="B596" t="s">
-        <v>728</v>
-      </c>
-      <c r="C596" t="n">
-        <v>4</v>
-      </c>
-      <c r="D596" t="s">
-        <v>215</v>
-      </c>
-      <c r="E596" t="s">
-        <v>38</v>
-      </c>
-      <c r="F596" t="s">
-        <v>38</v>
-      </c>
-      <c r="G596" t="s">
-        <v>38</v>
-      </c>
-      <c r="H596" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="598" spans="1:8">
-      <c r="A598" t="s">
-        <v>816</v>
+      <c r="F597" t="s">
+        <v>38</v>
+      </c>
+      <c r="G597" t="s">
+        <v>38</v>
+      </c>
+      <c r="H597" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="599" spans="1:8">
-      <c r="B599" t="s">
-        <v>449</v>
-      </c>
-      <c r="C599" t="n">
-        <v>3.4155</v>
-      </c>
-      <c r="D599" t="s">
-        <v>817</v>
-      </c>
-      <c r="E599" t="s">
-        <v>818</v>
-      </c>
-      <c r="F599" t="s">
-        <v>259</v>
-      </c>
-      <c r="G599" t="s">
-        <v>38</v>
-      </c>
-      <c r="H599" t="s">
-        <v>38</v>
+      <c r="A599" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="600" spans="1:8">
       <c r="B600" t="s">
-        <v>450</v>
+        <v>732</v>
       </c>
       <c r="C600" t="n">
         <v>4</v>
@@ -9558,75 +9585,75 @@
         <v>38</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
-      <c r="B601" t="s">
-        <v>453</v>
-      </c>
-      <c r="C601" t="n">
-        <v>4</v>
-      </c>
-      <c r="D601" t="s">
-        <v>215</v>
-      </c>
-      <c r="E601" t="s">
-        <v>38</v>
-      </c>
-      <c r="F601" t="s">
-        <v>38</v>
-      </c>
-      <c r="G601" t="s">
-        <v>38</v>
-      </c>
-      <c r="H601" t="s">
-        <v>38</v>
+    <row r="602" spans="1:8">
+      <c r="A602" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="603" spans="1:8">
-      <c r="A603" t="s">
-        <v>819</v>
+      <c r="B603" t="s">
+        <v>449</v>
+      </c>
+      <c r="C603" t="n">
+        <v>3.4155</v>
+      </c>
+      <c r="D603" t="s">
+        <v>821</v>
+      </c>
+      <c r="E603" t="s">
+        <v>822</v>
+      </c>
+      <c r="F603" t="s">
+        <v>259</v>
+      </c>
+      <c r="G603" t="s">
+        <v>38</v>
+      </c>
+      <c r="H603" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="604" spans="1:8">
       <c r="B604" t="s">
-        <v>820</v>
+        <v>450</v>
       </c>
       <c r="C604" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D604" t="s">
-        <v>821</v>
+        <v>215</v>
       </c>
       <c r="E604" t="s">
-        <v>822</v>
+        <v>38</v>
       </c>
       <c r="F604" t="s">
-        <v>823</v>
+        <v>38</v>
       </c>
       <c r="G604" t="s">
-        <v>824</v>
+        <v>38</v>
       </c>
       <c r="H604" t="s">
-        <v>825</v>
+        <v>38</v>
       </c>
     </row>
     <row r="605" spans="1:8">
       <c r="B605" t="s">
-        <v>826</v>
+        <v>453</v>
       </c>
       <c r="C605" t="n">
-        <v>3.096</v>
+        <v>4</v>
       </c>
       <c r="D605" t="s">
-        <v>827</v>
+        <v>215</v>
       </c>
       <c r="E605" t="s">
-        <v>828</v>
+        <v>38</v>
       </c>
       <c r="F605" t="s">
-        <v>829</v>
+        <v>38</v>
       </c>
       <c r="G605" t="s">
-        <v>830</v>
+        <v>38</v>
       </c>
       <c r="H605" t="s">
         <v>38</v>
@@ -9634,185 +9661,185 @@
     </row>
     <row r="607" spans="1:8">
       <c r="A607" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="608" spans="1:8">
       <c r="B608" t="s">
+        <v>824</v>
+      </c>
+      <c r="C608" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D608" t="s">
+        <v>825</v>
+      </c>
+      <c r="E608" t="s">
+        <v>826</v>
+      </c>
+      <c r="F608" t="s">
+        <v>827</v>
+      </c>
+      <c r="G608" t="s">
+        <v>828</v>
+      </c>
+      <c r="H608" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="B609" t="s">
+        <v>830</v>
+      </c>
+      <c r="C609" t="n">
+        <v>3.096</v>
+      </c>
+      <c r="D609" t="s">
+        <v>831</v>
+      </c>
+      <c r="E609" t="s">
         <v>832</v>
       </c>
-      <c r="C608" t="n">
+      <c r="F609" t="s">
+        <v>833</v>
+      </c>
+      <c r="G609" t="s">
+        <v>834</v>
+      </c>
+      <c r="H609" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="B612" t="s">
+        <v>836</v>
+      </c>
+      <c r="C612" t="n">
         <v>2.909</v>
       </c>
-      <c r="D608" t="s">
-        <v>833</v>
-      </c>
-      <c r="E608" t="s">
-        <v>834</v>
-      </c>
-      <c r="F608" t="s">
-        <v>835</v>
-      </c>
-      <c r="G608" t="s">
-        <v>836</v>
-      </c>
-      <c r="H608" t="s">
+      <c r="D612" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="610" spans="1:8">
-      <c r="A610" t="s">
+      <c r="E612" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="611" spans="1:8">
-      <c r="B611" t="s">
+      <c r="F612" t="s">
         <v>839</v>
       </c>
-      <c r="C611" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="D611" t="s">
+      <c r="G612" t="s">
         <v>840</v>
       </c>
-      <c r="E611" t="s">
-        <v>374</v>
-      </c>
-      <c r="F611" t="s">
+      <c r="H612" t="s">
         <v>841</v>
       </c>
-      <c r="G611" t="s">
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" t="s">
         <v>842</v>
-      </c>
-      <c r="H611" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="613" spans="1:8">
-      <c r="A613" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="614" spans="1:8">
-      <c r="B614" t="s">
-        <v>844</v>
-      </c>
-      <c r="C614" t="n">
-        <v>3.3483</v>
-      </c>
-      <c r="D614" t="s">
-        <v>179</v>
-      </c>
-      <c r="E614" t="s">
-        <v>845</v>
-      </c>
-      <c r="F614" t="s">
-        <v>846</v>
-      </c>
-      <c r="G614" t="s">
-        <v>847</v>
-      </c>
-      <c r="H614" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="615" spans="1:8">
       <c r="B615" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C615" t="n">
-        <v>3.2875</v>
+        <v>3.296</v>
       </c>
       <c r="D615" t="s">
-        <v>177</v>
+        <v>844</v>
       </c>
       <c r="E615" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="F615" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="G615" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="H615" t="s">
-        <v>851</v>
+        <v>38</v>
       </c>
     </row>
     <row r="617" spans="1:8">
       <c r="A617" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="618" spans="1:8">
       <c r="B618" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="C618" t="n">
-        <v>3.101</v>
+        <v>3.3483</v>
       </c>
       <c r="D618" t="s">
+        <v>179</v>
+      </c>
+      <c r="E618" t="s">
+        <v>849</v>
+      </c>
+      <c r="F618" t="s">
+        <v>850</v>
+      </c>
+      <c r="G618" t="s">
+        <v>851</v>
+      </c>
+      <c r="H618" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="B619" t="s">
+        <v>852</v>
+      </c>
+      <c r="C619" t="n">
+        <v>3.2875</v>
+      </c>
+      <c r="D619" t="s">
+        <v>177</v>
+      </c>
+      <c r="E619" t="s">
+        <v>176</v>
+      </c>
+      <c r="F619" t="s">
         <v>853</v>
       </c>
-      <c r="E618" t="s">
+      <c r="G619" t="s">
         <v>854</v>
       </c>
-      <c r="F618" t="s">
+      <c r="H619" t="s">
         <v>855</v>
       </c>
-      <c r="G618" t="s">
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" t="s">
         <v>856</v>
-      </c>
-      <c r="H618" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="620" spans="1:8">
-      <c r="A620" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="621" spans="1:8">
-      <c r="B621" t="s">
-        <v>858</v>
-      </c>
-      <c r="C621" t="n">
-        <v>3.0175</v>
-      </c>
-      <c r="D621" t="s">
-        <v>859</v>
-      </c>
-      <c r="E621" t="s">
-        <v>860</v>
-      </c>
-      <c r="F621" t="s">
-        <v>861</v>
-      </c>
-      <c r="G621" t="s">
-        <v>862</v>
-      </c>
-      <c r="H621" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="622" spans="1:8">
       <c r="B622" t="s">
-        <v>229</v>
+        <v>836</v>
       </c>
       <c r="C622" t="n">
-        <v>3.25</v>
+        <v>3.101</v>
       </c>
       <c r="D622" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E622" t="s">
-        <v>134</v>
+        <v>858</v>
       </c>
       <c r="F622" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G622" t="s">
-        <v>38</v>
+        <v>860</v>
       </c>
       <c r="H622" t="s">
         <v>38</v>
@@ -9820,47 +9847,47 @@
     </row>
     <row r="624" spans="1:8">
       <c r="A624" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="625" spans="1:8">
       <c r="B625" t="s">
+        <v>862</v>
+      </c>
+      <c r="C625" t="n">
+        <v>3.0175</v>
+      </c>
+      <c r="D625" t="s">
+        <v>863</v>
+      </c>
+      <c r="E625" t="s">
+        <v>864</v>
+      </c>
+      <c r="F625" t="s">
+        <v>865</v>
+      </c>
+      <c r="G625" t="s">
         <v>866</v>
       </c>
-      <c r="C625" t="n">
-        <v>3.1745</v>
-      </c>
-      <c r="D625" t="s">
-        <v>867</v>
-      </c>
-      <c r="E625" t="s">
-        <v>868</v>
-      </c>
-      <c r="F625" t="s">
-        <v>869</v>
-      </c>
-      <c r="G625" t="s">
-        <v>38</v>
-      </c>
       <c r="H625" t="s">
-        <v>149</v>
+        <v>614</v>
       </c>
     </row>
     <row r="626" spans="1:8">
       <c r="B626" t="s">
-        <v>870</v>
+        <v>229</v>
       </c>
       <c r="C626" t="n">
-        <v>3.353</v>
+        <v>3.25</v>
       </c>
       <c r="D626" t="s">
-        <v>366</v>
+        <v>867</v>
       </c>
       <c r="E626" t="s">
-        <v>662</v>
+        <v>134</v>
       </c>
       <c r="F626" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G626" t="s">
         <v>38</v>
@@ -9869,279 +9896,279 @@
         <v>38</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
-      <c r="B627" t="s">
-        <v>872</v>
-      </c>
-      <c r="C627" t="n">
-        <v>3.1813</v>
-      </c>
-      <c r="D627" t="s">
-        <v>873</v>
-      </c>
-      <c r="E627" t="s">
-        <v>874</v>
-      </c>
-      <c r="F627" t="s">
-        <v>875</v>
-      </c>
-      <c r="G627" t="s">
-        <v>876</v>
-      </c>
-      <c r="H627" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="628" spans="1:8">
-      <c r="B628" t="s">
-        <v>877</v>
-      </c>
-      <c r="C628" t="n">
-        <v>2.9443</v>
-      </c>
-      <c r="D628" t="s">
-        <v>878</v>
-      </c>
-      <c r="E628" t="s">
-        <v>879</v>
-      </c>
-      <c r="F628" t="s">
-        <v>880</v>
-      </c>
-      <c r="G628" t="s">
-        <v>881</v>
-      </c>
-      <c r="H628" t="s">
-        <v>38</v>
+      <c r="A628" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="629" spans="1:8">
       <c r="B629" t="s">
-        <v>229</v>
+        <v>870</v>
       </c>
       <c r="C629" t="n">
-        <v>3.774</v>
+        <v>3.3435</v>
       </c>
       <c r="D629" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="E629" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F629" t="s">
-        <v>38</v>
+        <v>873</v>
       </c>
       <c r="G629" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="H629" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
-      <c r="B630" t="s">
-        <v>884</v>
-      </c>
-      <c r="C630" t="n">
-        <v>3.194</v>
-      </c>
-      <c r="D630" t="s">
-        <v>885</v>
-      </c>
-      <c r="E630" t="s">
-        <v>886</v>
-      </c>
-      <c r="F630" t="s">
-        <v>887</v>
-      </c>
-      <c r="G630" t="s">
-        <v>38</v>
-      </c>
-      <c r="H630" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="631" spans="1:8">
-      <c r="B631" t="s">
-        <v>888</v>
-      </c>
-      <c r="C631" t="n">
-        <v>3.229</v>
-      </c>
-      <c r="D631" t="s">
-        <v>889</v>
-      </c>
-      <c r="E631" t="s">
-        <v>770</v>
-      </c>
-      <c r="F631" t="s">
-        <v>343</v>
-      </c>
-      <c r="G631" t="s">
-        <v>38</v>
-      </c>
-      <c r="H631" t="s">
-        <v>38</v>
+      <c r="A631" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="B632" t="s">
+        <v>875</v>
+      </c>
+      <c r="C632" t="n">
+        <v>3.1745</v>
+      </c>
+      <c r="D632" t="s">
+        <v>876</v>
+      </c>
+      <c r="E632" t="s">
+        <v>877</v>
+      </c>
+      <c r="F632" t="s">
+        <v>878</v>
+      </c>
+      <c r="G632" t="s">
+        <v>38</v>
+      </c>
+      <c r="H632" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="633" spans="1:8">
-      <c r="A633" t="s">
-        <v>890</v>
+      <c r="B633" t="s">
+        <v>879</v>
+      </c>
+      <c r="C633" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="D633" t="s">
+        <v>366</v>
+      </c>
+      <c r="E633" t="s">
+        <v>665</v>
+      </c>
+      <c r="F633" t="s">
+        <v>880</v>
+      </c>
+      <c r="G633" t="s">
+        <v>38</v>
+      </c>
+      <c r="H633" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="634" spans="1:8">
       <c r="B634" t="s">
+        <v>881</v>
+      </c>
+      <c r="C634" t="n">
+        <v>3.1813</v>
+      </c>
+      <c r="D634" t="s">
+        <v>882</v>
+      </c>
+      <c r="E634" t="s">
+        <v>883</v>
+      </c>
+      <c r="F634" t="s">
+        <v>884</v>
+      </c>
+      <c r="G634" t="s">
+        <v>885</v>
+      </c>
+      <c r="H634" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
+      <c r="B635" t="s">
+        <v>886</v>
+      </c>
+      <c r="C635" t="n">
+        <v>2.9443</v>
+      </c>
+      <c r="D635" t="s">
+        <v>887</v>
+      </c>
+      <c r="E635" t="s">
+        <v>888</v>
+      </c>
+      <c r="F635" t="s">
+        <v>889</v>
+      </c>
+      <c r="G635" t="s">
+        <v>890</v>
+      </c>
+      <c r="H635" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="B636" t="s">
+        <v>229</v>
+      </c>
+      <c r="C636" t="n">
+        <v>3.774</v>
+      </c>
+      <c r="D636" t="s">
         <v>891</v>
       </c>
-      <c r="C634" t="n">
-        <v>3.417</v>
-      </c>
-      <c r="D634" t="s">
+      <c r="E636" t="s">
         <v>892</v>
       </c>
-      <c r="E634" t="s">
-        <v>341</v>
-      </c>
-      <c r="F634" t="s">
-        <v>38</v>
-      </c>
-      <c r="G634" t="s">
-        <v>38</v>
-      </c>
-      <c r="H634" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="636" spans="1:8">
-      <c r="A636" t="s">
-        <v>893</v>
+      <c r="F636" t="s">
+        <v>38</v>
+      </c>
+      <c r="G636" t="s">
+        <v>38</v>
+      </c>
+      <c r="H636" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="637" spans="1:8">
       <c r="B637" t="s">
+        <v>893</v>
+      </c>
+      <c r="C637" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="D637" t="s">
+        <v>894</v>
+      </c>
+      <c r="E637" t="s">
+        <v>895</v>
+      </c>
+      <c r="F637" t="s">
+        <v>896</v>
+      </c>
+      <c r="G637" t="s">
+        <v>38</v>
+      </c>
+      <c r="H637" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="B638" t="s">
+        <v>897</v>
+      </c>
+      <c r="C638" t="n">
+        <v>3.229</v>
+      </c>
+      <c r="D638" t="s">
+        <v>898</v>
+      </c>
+      <c r="E638" t="s">
+        <v>774</v>
+      </c>
+      <c r="F638" t="s">
+        <v>343</v>
+      </c>
+      <c r="G638" t="s">
+        <v>38</v>
+      </c>
+      <c r="H638" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="B641" t="s">
+        <v>900</v>
+      </c>
+      <c r="C641" t="n">
+        <v>3.417</v>
+      </c>
+      <c r="D641" t="s">
+        <v>901</v>
+      </c>
+      <c r="E641" t="s">
+        <v>341</v>
+      </c>
+      <c r="F641" t="s">
+        <v>38</v>
+      </c>
+      <c r="G641" t="s">
+        <v>38</v>
+      </c>
+      <c r="H641" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
+      <c r="A643" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
+      <c r="B644" t="s">
         <v>449</v>
       </c>
-      <c r="C637" t="n">
+      <c r="C644" t="n">
         <v>3.4577</v>
       </c>
-      <c r="D637" t="s">
+      <c r="D644" t="s">
         <v>341</v>
       </c>
-      <c r="E637" t="s">
+      <c r="E644" t="s">
         <v>266</v>
       </c>
-      <c r="F637" t="s">
+      <c r="F644" t="s">
         <v>272</v>
       </c>
-      <c r="G637" t="s">
-        <v>894</v>
-      </c>
-      <c r="H637" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="639" spans="1:8">
-      <c r="A639" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="640" spans="1:8">
-      <c r="B640" t="s">
-        <v>463</v>
-      </c>
-      <c r="C640" t="n">
-        <v>3.303</v>
-      </c>
-      <c r="D640" t="s">
-        <v>597</v>
-      </c>
-      <c r="E640" t="s">
-        <v>896</v>
-      </c>
-      <c r="F640" t="s">
-        <v>897</v>
-      </c>
-      <c r="G640" t="s">
-        <v>898</v>
-      </c>
-      <c r="H640" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8">
-      <c r="A642" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8">
-      <c r="B643" t="s">
-        <v>455</v>
-      </c>
-      <c r="C643" t="n">
-        <v>3.513</v>
-      </c>
-      <c r="D643" t="s">
-        <v>900</v>
-      </c>
-      <c r="E643" t="s">
-        <v>901</v>
-      </c>
-      <c r="F643" t="s">
-        <v>589</v>
-      </c>
-      <c r="G643" t="s">
-        <v>902</v>
-      </c>
-      <c r="H643" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="645" spans="1:8">
-      <c r="A645" t="s">
+      <c r="G644" t="s">
         <v>903</v>
       </c>
+      <c r="H644" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="646" spans="1:8">
-      <c r="B646" t="s">
+      <c r="A646" t="s">
         <v>904</v>
-      </c>
-      <c r="C646" t="n">
-        <v>3.3965</v>
-      </c>
-      <c r="D646" t="s">
-        <v>554</v>
-      </c>
-      <c r="E646" t="s">
-        <v>632</v>
-      </c>
-      <c r="F646" t="s">
-        <v>224</v>
-      </c>
-      <c r="G646" t="s">
-        <v>38</v>
-      </c>
-      <c r="H646" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="647" spans="1:8">
       <c r="B647" t="s">
-        <v>566</v>
+        <v>463</v>
       </c>
       <c r="C647" t="n">
-        <v>3.5705</v>
+        <v>3.303</v>
       </c>
       <c r="D647" t="s">
+        <v>600</v>
+      </c>
+      <c r="E647" t="s">
         <v>905</v>
       </c>
-      <c r="E647" t="s">
+      <c r="F647" t="s">
         <v>906</v>
       </c>
-      <c r="F647" t="s">
+      <c r="G647" t="s">
         <v>907</v>
-      </c>
-      <c r="G647" t="s">
-        <v>38</v>
       </c>
       <c r="H647" t="s">
         <v>38</v>
@@ -10154,98 +10181,177 @@
     </row>
     <row r="650" spans="1:8">
       <c r="B650" t="s">
+        <v>455</v>
+      </c>
+      <c r="C650" t="n">
+        <v>3.513</v>
+      </c>
+      <c r="D650" t="s">
         <v>909</v>
       </c>
-      <c r="C650" t="n">
+      <c r="E650" t="s">
+        <v>910</v>
+      </c>
+      <c r="F650" t="s">
+        <v>592</v>
+      </c>
+      <c r="G650" t="s">
+        <v>911</v>
+      </c>
+      <c r="H650" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8">
+      <c r="A652" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8">
+      <c r="B653" t="s">
+        <v>913</v>
+      </c>
+      <c r="C653" t="n">
+        <v>3.3965</v>
+      </c>
+      <c r="D653" t="s">
+        <v>554</v>
+      </c>
+      <c r="E653" t="s">
+        <v>635</v>
+      </c>
+      <c r="F653" t="s">
+        <v>224</v>
+      </c>
+      <c r="G653" t="s">
+        <v>38</v>
+      </c>
+      <c r="H653" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="B654" t="s">
+        <v>569</v>
+      </c>
+      <c r="C654" t="n">
+        <v>3.5705</v>
+      </c>
+      <c r="D654" t="s">
+        <v>914</v>
+      </c>
+      <c r="E654" t="s">
+        <v>915</v>
+      </c>
+      <c r="F654" t="s">
+        <v>916</v>
+      </c>
+      <c r="G654" t="s">
+        <v>38</v>
+      </c>
+      <c r="H654" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8">
+      <c r="A656" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="B657" t="s">
+        <v>918</v>
+      </c>
+      <c r="C657" t="n">
         <v>3.696</v>
       </c>
-      <c r="D650" t="s">
-        <v>910</v>
-      </c>
-      <c r="E650" t="s">
+      <c r="D657" t="s">
+        <v>919</v>
+      </c>
+      <c r="E657" t="s">
         <v>71</v>
       </c>
-      <c r="F650" t="s">
-        <v>38</v>
-      </c>
-      <c r="G650" t="s">
-        <v>38</v>
-      </c>
-      <c r="H650" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="651" spans="1:8">
-      <c r="B651" t="s">
-        <v>911</v>
-      </c>
-      <c r="C651" t="n">
+      <c r="F657" t="s">
+        <v>38</v>
+      </c>
+      <c r="G657" t="s">
+        <v>38</v>
+      </c>
+      <c r="H657" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="B658" t="s">
+        <v>920</v>
+      </c>
+      <c r="C658" t="n">
         <v>3.547</v>
       </c>
-      <c r="D651" t="s">
+      <c r="D658" t="s">
         <v>354</v>
       </c>
-      <c r="E651" t="s">
-        <v>912</v>
-      </c>
-      <c r="F651" t="s">
-        <v>913</v>
-      </c>
-      <c r="G651" t="s">
-        <v>38</v>
-      </c>
-      <c r="H651" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="652" spans="1:8">
-      <c r="B652" t="s">
-        <v>914</v>
-      </c>
-      <c r="C652" t="n">
+      <c r="E658" t="s">
+        <v>921</v>
+      </c>
+      <c r="F658" t="s">
+        <v>922</v>
+      </c>
+      <c r="G658" t="s">
+        <v>38</v>
+      </c>
+      <c r="H658" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8">
+      <c r="B659" t="s">
+        <v>923</v>
+      </c>
+      <c r="C659" t="n">
         <v>3.24</v>
       </c>
-      <c r="D652" t="s">
-        <v>915</v>
-      </c>
-      <c r="E652" t="s">
+      <c r="D659" t="s">
+        <v>924</v>
+      </c>
+      <c r="E659" t="s">
         <v>494</v>
       </c>
-      <c r="F652" t="s">
-        <v>916</v>
-      </c>
-      <c r="G652" t="s">
-        <v>38</v>
-      </c>
-      <c r="H652" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="654" spans="1:8">
-      <c r="A654" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="655" spans="1:8">
-      <c r="B655" t="s">
+      <c r="F659" t="s">
+        <v>925</v>
+      </c>
+      <c r="G659" t="s">
+        <v>38</v>
+      </c>
+      <c r="H659" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
+      <c r="A661" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="B662" t="s">
         <v>229</v>
       </c>
-      <c r="C655" t="n">
+      <c r="C662" t="n">
         <v>3.546</v>
       </c>
-      <c r="D655" t="s">
-        <v>714</v>
-      </c>
-      <c r="E655" t="s">
+      <c r="D662" t="s">
+        <v>718</v>
+      </c>
+      <c r="E662" t="s">
         <v>47</v>
       </c>
-      <c r="F655" t="s">
-        <v>38</v>
-      </c>
-      <c r="G655" t="s">
-        <v>38</v>
-      </c>
-      <c r="H655" t="s">
+      <c r="F662" t="s">
+        <v>38</v>
+      </c>
+      <c r="G662" t="s">
+        <v>38</v>
+      </c>
+      <c r="H662" t="s">
         <v>38</v>
       </c>
     </row>
